--- a/hw1_requirements.xlsx
+++ b/hw1_requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\endar\Documents\学习\Master\25 Spring\ECE 568\hw1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qingmeng/Desktop/ECE568/homework1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF23AC28-9879-46D0-BF9D-D9D6D0623FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D85B17-A061-5147-857E-E8EACB9FC1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{845B1E4D-506C-FC44-903E-E3158AE804D8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21800" windowHeight="12980" xr2:uid="{845B1E4D-506C-FC44-903E-E3158AE804D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Requirement</t>
   </si>
@@ -107,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,9 +166,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,7 +206,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -312,7 +312,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,7 +454,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -465,17 +465,17 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.8203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.64453125" customWidth="1"/>
-    <col min="3" max="3" width="14.46875" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="51">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -497,7 +497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -508,7 +508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -519,7 +519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -530,7 +530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -541,7 +541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -552,7 +552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -563,7 +563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -574,7 +574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -585,7 +585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -596,7 +596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -607,7 +607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -629,7 +629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -640,7 +640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -651,7 +651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -662,15 +662,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
       <c r="D18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -681,7 +684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -692,7 +695,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
